--- a/PCIELO-RESULTADOS-ICFES-MODELO-FLEXIBLE-2025.xlsx
+++ b/PCIELO-RESULTADOS-ICFES-MODELO-FLEXIBLE-2025.xlsx
@@ -3763,7 +3763,7 @@
       <c r="K64" s="17" t="n"/>
       <c r="L64" s="17" t="n"/>
       <c r="M64" s="17" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" s="14">
